--- a/tp6-parte1/tabla_genetic_algorithm.xlsx
+++ b/tp6-parte1/tabla_genetic_algorithm.xlsx
@@ -24,12 +24,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>GeneticAlgorithm</t>
   </si>
   <si>
     <t>(midiendo tiempo e iteraciones, con probabilidad de mutacion de 0,15)</t>
+  </si>
+  <si>
+    <t>Poblacion</t>
+  </si>
+  <si>
+    <t>Iteraciones</t>
+  </si>
+  <si>
+    <t>Tiempo (ms)</t>
+  </si>
+  <si>
+    <t>(midiendo tiempo e iteraciones, con poblacion = 30)</t>
+  </si>
+  <si>
+    <t>Probabilidad</t>
   </si>
 </sst>
 </file>
@@ -85,6 +100,30 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="C5:E15" totalsRowShown="0">
+  <autoFilter ref="C5:E15"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Poblacion"/>
+    <tableColumn id="2" name="Tiempo (ms)"/>
+    <tableColumn id="3" name="Iteraciones"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="C19:E30" totalsRowShown="0">
+  <autoFilter ref="C19:E30"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Probabilidad"/>
+    <tableColumn id="2" name="Tiempo (ms)"/>
+    <tableColumn id="3" name="Iteraciones"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,13 +389,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:E4"/>
+  <dimension ref="C4:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
@@ -367,10 +411,278 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>4869</v>
+      </c>
+      <c r="E6">
+        <v>14452</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>3878</v>
+      </c>
+      <c r="E7">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>3614</v>
+      </c>
+      <c r="E8">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>3857</v>
+      </c>
+      <c r="E9">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>3728</v>
+      </c>
+      <c r="E10">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <v>5634</v>
+      </c>
+      <c r="E11">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>70</v>
+      </c>
+      <c r="D12">
+        <v>8795</v>
+      </c>
+      <c r="E12">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>80</v>
+      </c>
+      <c r="D13">
+        <v>5723</v>
+      </c>
+      <c r="E13">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>90</v>
+      </c>
+      <c r="D14">
+        <v>7713</v>
+      </c>
+      <c r="E14">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>6464</v>
+      </c>
+      <c r="E15">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>0.15</v>
+      </c>
+      <c r="D20">
+        <v>2095</v>
+      </c>
+      <c r="E20">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>0.25</v>
+      </c>
+      <c r="D21">
+        <v>3229</v>
+      </c>
+      <c r="E21">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>0.35</v>
+      </c>
+      <c r="D22">
+        <v>3626</v>
+      </c>
+      <c r="E22">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="D23">
+        <v>2776</v>
+      </c>
+      <c r="E23">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D24">
+        <v>3743</v>
+      </c>
+      <c r="E24">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>0.65</v>
+      </c>
+      <c r="D25">
+        <v>4835</v>
+      </c>
+      <c r="E25">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="D26">
+        <v>3946</v>
+      </c>
+      <c r="E26">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="D27">
+        <v>5319</v>
+      </c>
+      <c r="E27">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="D28">
+        <v>5726</v>
+      </c>
+      <c r="E28">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>1.05</v>
+      </c>
+      <c r="D29">
+        <v>2071</v>
+      </c>
+      <c r="E29">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D30">
+        <v>5343</v>
+      </c>
+      <c r="E30">
+        <v>3117</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>